--- a/biology/Botanique/Agathis_endertii/Agathis_endertii.xlsx
+++ b/biology/Botanique/Agathis_endertii/Agathis_endertii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Agathis endertii est une espèce de conifère de la famille des Araucariaceae. Cet arbre est originaire de l'île de Bornéo, d'Indonésie et de Malaisie. Il est menacé du fait de la destruction de son habitat.
 </t>
@@ -511,7 +523,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence UICN : espèce Agathis endertii  Meijer Drees (consulté le 5 avril 2015)
  Portail de la botanique                     </t>
